--- a/WebScraping/Upwork/Ahmad/active-jobs/Milestone25/Grainger-Output.xlsx
+++ b/WebScraping/Upwork/Ahmad/active-jobs/Milestone25/Grainger-Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="1336">
   <si>
     <t>mfr website</t>
   </si>
@@ -1471,6 +1471,9 @@
     <t>41D941</t>
   </si>
   <si>
+    <t>1299999999999999993905342907876593183412684247945578894827600267195620242596987688725249929584363545998400052174931512140089090696319907225608967562977433688161374306084817255710637281560230819942859147490575196416645665633086072840709613221720180835098089408033169745087295097606659661736829779968</t>
+  </si>
+  <si>
     <t>49XY58</t>
   </si>
   <si>
@@ -2233,6 +2236,9 @@
     <t>3YU64</t>
   </si>
   <si>
+    <t>21431</t>
+  </si>
+  <si>
     <t>45NG60</t>
   </si>
   <si>
@@ -2489,6 +2495,9 @@
   </si>
   <si>
     <t>29YW53</t>
+  </si>
+  <si>
+    <t>54613</t>
   </si>
   <si>
     <t>36N059</t>
@@ -4518,7 +4527,7 @@
         <v>2604</v>
       </c>
       <c r="F2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -4538,7 +4547,7 @@
         <v>1546</v>
       </c>
       <c r="F3" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -4558,7 +4567,7 @@
         <v>424</v>
       </c>
       <c r="F4" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -4571,14 +4580,14 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D5">
-        <v>1.3E+297</v>
+      <c r="D5" t="s">
+        <v>485</v>
       </c>
       <c r="E5">
         <v>2475</v>
       </c>
       <c r="F5" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -4592,13 +4601,13 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E6">
         <v>2580</v>
       </c>
       <c r="F6" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -4612,13 +4621,13 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E7">
         <v>2008</v>
       </c>
       <c r="F7" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -4632,13 +4641,13 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E8">
         <v>443</v>
       </c>
       <c r="F8" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -4652,13 +4661,13 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E9">
         <v>1015</v>
       </c>
       <c r="F9" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -4672,13 +4681,13 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -4692,13 +4701,13 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E11">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -4712,13 +4721,13 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E12">
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -4732,13 +4741,13 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E13">
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -4752,13 +4761,13 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E14">
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -4772,13 +4781,13 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E15">
         <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -4792,13 +4801,13 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E16">
         <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4812,13 +4821,13 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E17">
         <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4832,13 +4841,13 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E18">
         <v>1669</v>
       </c>
       <c r="F18" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4852,13 +4861,13 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E19">
         <v>368</v>
       </c>
       <c r="F19" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4872,13 +4881,13 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E20">
         <v>600</v>
       </c>
       <c r="F20" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4892,13 +4901,13 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E21">
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4912,13 +4921,13 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E22">
         <v>1871</v>
       </c>
       <c r="F22" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4932,13 +4941,13 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E23">
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4952,13 +4961,13 @@
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E24">
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4972,13 +4981,13 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E25">
         <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4992,13 +5001,13 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E26">
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5012,13 +5021,13 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5032,13 +5041,13 @@
         <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E28">
         <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5052,13 +5061,13 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E29">
         <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5072,13 +5081,13 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E30">
         <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5092,13 +5101,13 @@
         <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E31">
         <v>883</v>
       </c>
       <c r="F31" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5112,13 +5121,13 @@
         <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E32">
         <v>939</v>
       </c>
       <c r="F32" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5132,13 +5141,13 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E33">
         <v>1866</v>
       </c>
       <c r="F33" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5158,7 +5167,7 @@
         <v>1177</v>
       </c>
       <c r="F34" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5178,7 +5187,7 @@
         <v>2609</v>
       </c>
       <c r="F35" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5192,13 +5201,13 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E36">
         <v>746</v>
       </c>
       <c r="F36" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5212,13 +5221,13 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E37">
         <v>2013</v>
       </c>
       <c r="F37" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5232,13 +5241,13 @@
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E38">
         <v>1903</v>
       </c>
       <c r="F38" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5252,13 +5261,13 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E39">
         <v>623</v>
       </c>
       <c r="F39" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5272,13 +5281,13 @@
         <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E40">
         <v>497</v>
       </c>
       <c r="F40" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5292,13 +5301,13 @@
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E41">
         <v>1232</v>
       </c>
       <c r="F41" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5312,13 +5321,13 @@
         <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E42">
         <v>2562</v>
       </c>
       <c r="F42" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5332,13 +5341,13 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E43">
         <v>789</v>
       </c>
       <c r="F43" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5352,13 +5361,13 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E44">
         <v>943</v>
       </c>
       <c r="F44" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5378,7 +5387,7 @@
         <v>204</v>
       </c>
       <c r="F45" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5398,7 +5407,7 @@
         <v>256</v>
       </c>
       <c r="F46" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5412,13 +5421,13 @@
         <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E47">
         <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5432,13 +5441,13 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E48">
         <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5452,13 +5461,13 @@
         <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E49">
         <v>472</v>
       </c>
       <c r="F49" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5472,13 +5481,13 @@
         <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E50">
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5492,13 +5501,13 @@
         <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E51">
         <v>125</v>
       </c>
       <c r="F51" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5512,13 +5521,13 @@
         <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E52">
         <v>451</v>
       </c>
       <c r="F52" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5532,13 +5541,13 @@
         <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E53">
         <v>686</v>
       </c>
       <c r="F53" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5552,13 +5561,13 @@
         <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E54">
         <v>527</v>
       </c>
       <c r="F54" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5572,13 +5581,13 @@
         <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E55">
         <v>553</v>
       </c>
       <c r="F55" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5592,13 +5601,13 @@
         <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E56">
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5612,13 +5621,13 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E57">
         <v>513</v>
       </c>
       <c r="F57" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5632,13 +5641,13 @@
         <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E58">
         <v>3555</v>
       </c>
       <c r="F58" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5652,13 +5661,13 @@
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E59">
         <v>1907</v>
       </c>
       <c r="F59" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5672,13 +5681,13 @@
         <v>101</v>
       </c>
       <c r="D60" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E60">
         <v>3483</v>
       </c>
       <c r="F60" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5692,13 +5701,13 @@
         <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E61">
         <v>301</v>
       </c>
       <c r="F61" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5712,13 +5721,13 @@
         <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E62">
         <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5732,13 +5741,13 @@
         <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E63">
         <v>107</v>
       </c>
       <c r="F63" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5752,13 +5761,13 @@
         <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E64">
         <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5772,13 +5781,13 @@
         <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E65">
         <v>621</v>
       </c>
       <c r="F65" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5792,13 +5801,13 @@
         <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E66">
         <v>353</v>
       </c>
       <c r="F66" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5812,13 +5821,13 @@
         <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E67">
         <v>153</v>
       </c>
       <c r="F67" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5832,13 +5841,13 @@
         <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E68">
         <v>530</v>
       </c>
       <c r="F68" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5852,13 +5861,13 @@
         <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E69">
         <v>193</v>
       </c>
       <c r="F69" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5872,13 +5881,13 @@
         <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E70">
         <v>373</v>
       </c>
       <c r="F70" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5892,13 +5901,13 @@
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E71">
         <v>455</v>
       </c>
       <c r="F71" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5912,13 +5921,13 @@
         <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E72">
         <v>187</v>
       </c>
       <c r="F72" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5932,13 +5941,13 @@
         <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E73">
         <v>327</v>
       </c>
       <c r="F73" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5952,13 +5961,13 @@
         <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E74">
         <v>166</v>
       </c>
       <c r="F74" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5972,13 +5981,13 @@
         <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E75">
         <v>225</v>
       </c>
       <c r="F75" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5992,13 +6001,13 @@
         <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E76">
         <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6012,13 +6021,13 @@
         <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E77">
         <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6032,13 +6041,13 @@
         <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E78">
         <v>558</v>
       </c>
       <c r="F78" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6052,13 +6061,13 @@
         <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E79">
         <v>506</v>
       </c>
       <c r="F79" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6072,13 +6081,13 @@
         <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E80">
         <v>250</v>
       </c>
       <c r="F80" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6092,13 +6101,13 @@
         <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E81">
         <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6112,13 +6121,13 @@
         <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E82">
         <v>621</v>
       </c>
       <c r="F82" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6132,13 +6141,13 @@
         <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E83">
         <v>485</v>
       </c>
       <c r="F83" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6152,13 +6161,13 @@
         <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E84">
         <v>593</v>
       </c>
       <c r="F84" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6172,13 +6181,13 @@
         <v>126</v>
       </c>
       <c r="D85" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E85">
         <v>666</v>
       </c>
       <c r="F85" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6192,13 +6201,13 @@
         <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E86">
         <v>750</v>
       </c>
       <c r="F86" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6212,13 +6221,13 @@
         <v>128</v>
       </c>
       <c r="D87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E87">
         <v>262</v>
       </c>
       <c r="F87" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6232,13 +6241,13 @@
         <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E88">
         <v>710</v>
       </c>
       <c r="F88" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6252,13 +6261,13 @@
         <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E89">
         <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6272,13 +6281,13 @@
         <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E90">
         <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6292,13 +6301,13 @@
         <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E91">
         <v>65</v>
       </c>
       <c r="F91" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6312,13 +6321,13 @@
         <v>133</v>
       </c>
       <c r="D92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E92">
         <v>222</v>
       </c>
       <c r="F92" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6332,13 +6341,13 @@
         <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E93">
         <v>1204</v>
       </c>
       <c r="F93" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6352,13 +6361,13 @@
         <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E94">
         <v>1133</v>
       </c>
       <c r="F94" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6372,13 +6381,13 @@
         <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E95">
         <v>1355</v>
       </c>
       <c r="F95" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6392,13 +6401,13 @@
         <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E96">
         <v>598</v>
       </c>
       <c r="F96" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6412,13 +6421,13 @@
         <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E97">
         <v>1529</v>
       </c>
       <c r="F97" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6432,13 +6441,13 @@
         <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E98">
         <v>922</v>
       </c>
       <c r="F98" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6452,13 +6461,13 @@
         <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E99">
         <v>422</v>
       </c>
       <c r="F99" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6472,13 +6481,13 @@
         <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E100">
         <v>258</v>
       </c>
       <c r="F100" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6492,13 +6501,13 @@
         <v>142</v>
       </c>
       <c r="D101" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E101">
         <v>463</v>
       </c>
       <c r="F101" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6512,13 +6521,13 @@
         <v>143</v>
       </c>
       <c r="D102" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E102">
         <v>642</v>
       </c>
       <c r="F102" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6532,13 +6541,13 @@
         <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E103">
         <v>509</v>
       </c>
       <c r="F103" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6552,13 +6561,13 @@
         <v>145</v>
       </c>
       <c r="D104" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E104">
         <v>752</v>
       </c>
       <c r="F104" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6572,13 +6581,13 @@
         <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E105">
         <v>800</v>
       </c>
       <c r="F105" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6592,13 +6601,13 @@
         <v>147</v>
       </c>
       <c r="D106" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E106">
         <v>1159</v>
       </c>
       <c r="F106" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6612,13 +6621,13 @@
         <v>148</v>
       </c>
       <c r="D107" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E107">
         <v>704</v>
       </c>
       <c r="F107" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6632,13 +6641,13 @@
         <v>149</v>
       </c>
       <c r="D108" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E108">
         <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6652,13 +6661,13 @@
         <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E109">
         <v>1659</v>
       </c>
       <c r="F109" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6672,13 +6681,13 @@
         <v>151</v>
       </c>
       <c r="D110" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E110">
         <v>259</v>
       </c>
       <c r="F110" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6692,13 +6701,13 @@
         <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E111">
         <v>2345</v>
       </c>
       <c r="F111" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6712,13 +6721,13 @@
         <v>153</v>
       </c>
       <c r="D112" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E112">
         <v>3078</v>
       </c>
       <c r="F112" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6732,13 +6741,13 @@
         <v>154</v>
       </c>
       <c r="D113" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E113">
         <v>432</v>
       </c>
       <c r="F113" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6752,13 +6761,13 @@
         <v>155</v>
       </c>
       <c r="D114" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E114">
         <v>857</v>
       </c>
       <c r="F114" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6772,13 +6781,13 @@
         <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E115">
         <v>857</v>
       </c>
       <c r="F115" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6792,13 +6801,13 @@
         <v>157</v>
       </c>
       <c r="D116" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E116">
         <v>474</v>
       </c>
       <c r="F116" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6812,13 +6821,13 @@
         <v>158</v>
       </c>
       <c r="D117" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E117">
         <v>869</v>
       </c>
       <c r="F117" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6832,13 +6841,13 @@
         <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E118">
         <v>518</v>
       </c>
       <c r="F118" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6852,13 +6861,13 @@
         <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E119">
         <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6872,13 +6881,13 @@
         <v>161</v>
       </c>
       <c r="D120" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E120">
         <v>193</v>
       </c>
       <c r="F120" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6898,7 +6907,7 @@
         <v>312</v>
       </c>
       <c r="F121" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6912,13 +6921,13 @@
         <v>163</v>
       </c>
       <c r="D122" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E122">
         <v>176</v>
       </c>
       <c r="F122" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6932,13 +6941,13 @@
         <v>164</v>
       </c>
       <c r="D123" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E123">
         <v>213</v>
       </c>
       <c r="F123" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6952,13 +6961,13 @@
         <v>165</v>
       </c>
       <c r="D124" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E124">
         <v>172</v>
       </c>
       <c r="F124" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6972,13 +6981,13 @@
         <v>166</v>
       </c>
       <c r="D125" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E125">
         <v>171</v>
       </c>
       <c r="F125" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6992,13 +7001,13 @@
         <v>167</v>
       </c>
       <c r="D126" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E126">
         <v>144</v>
       </c>
       <c r="F126" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7012,13 +7021,13 @@
         <v>168</v>
       </c>
       <c r="D127" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E127">
         <v>138</v>
       </c>
       <c r="F127" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7032,13 +7041,13 @@
         <v>169</v>
       </c>
       <c r="D128" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E128">
         <v>161</v>
       </c>
       <c r="F128" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7052,13 +7061,13 @@
         <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E129">
         <v>750</v>
       </c>
       <c r="F129" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7078,7 +7087,7 @@
         <v>384</v>
       </c>
       <c r="F130" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7092,13 +7101,13 @@
         <v>172</v>
       </c>
       <c r="D131" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E131">
         <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7112,13 +7121,13 @@
         <v>173</v>
       </c>
       <c r="D132" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E132">
         <v>488</v>
       </c>
       <c r="F132" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7138,7 +7147,7 @@
         <v>149</v>
       </c>
       <c r="F133" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7152,13 +7161,13 @@
         <v>175</v>
       </c>
       <c r="D134" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E134">
         <v>246</v>
       </c>
       <c r="F134" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7172,13 +7181,13 @@
         <v>176</v>
       </c>
       <c r="D135" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E135">
         <v>1184</v>
       </c>
       <c r="F135" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7192,13 +7201,13 @@
         <v>177</v>
       </c>
       <c r="D136" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E136">
         <v>300</v>
       </c>
       <c r="F136" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7212,13 +7221,13 @@
         <v>178</v>
       </c>
       <c r="D137" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E137">
         <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7232,13 +7241,13 @@
         <v>179</v>
       </c>
       <c r="D138" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E138">
         <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7258,7 +7267,7 @@
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7272,13 +7281,13 @@
         <v>181</v>
       </c>
       <c r="D140" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E140">
         <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7292,13 +7301,13 @@
         <v>182</v>
       </c>
       <c r="D141" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E141">
         <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7312,13 +7321,13 @@
         <v>183</v>
       </c>
       <c r="D142" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E142">
         <v>53</v>
       </c>
       <c r="F142" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7332,13 +7341,13 @@
         <v>184</v>
       </c>
       <c r="D143" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E143">
         <v>54</v>
       </c>
       <c r="F143" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7352,13 +7361,13 @@
         <v>185</v>
       </c>
       <c r="D144" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E144">
         <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7372,13 +7381,13 @@
         <v>186</v>
       </c>
       <c r="D145" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E145">
         <v>3243</v>
       </c>
       <c r="F145" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7392,13 +7401,13 @@
         <v>187</v>
       </c>
       <c r="D146" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E146">
         <v>231</v>
       </c>
       <c r="F146" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7412,13 +7421,13 @@
         <v>188</v>
       </c>
       <c r="D147" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E147">
         <v>1044</v>
       </c>
       <c r="F147" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7432,13 +7441,13 @@
         <v>189</v>
       </c>
       <c r="D148" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E148">
         <v>7273</v>
       </c>
       <c r="F148" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7452,13 +7461,13 @@
         <v>190</v>
       </c>
       <c r="D149" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E149">
         <v>2627</v>
       </c>
       <c r="F149" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7472,13 +7481,13 @@
         <v>191</v>
       </c>
       <c r="D150" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E150">
         <v>2245</v>
       </c>
       <c r="F150" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7492,13 +7501,13 @@
         <v>192</v>
       </c>
       <c r="D151" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E151">
         <v>1360</v>
       </c>
       <c r="F151" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7512,13 +7521,13 @@
         <v>193</v>
       </c>
       <c r="D152" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E152">
         <v>1382</v>
       </c>
       <c r="F152" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7532,13 +7541,13 @@
         <v>194</v>
       </c>
       <c r="D153" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E153">
         <v>94</v>
       </c>
       <c r="F153" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7552,13 +7561,13 @@
         <v>195</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E154">
         <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7578,7 +7587,7 @@
         <v>2005</v>
       </c>
       <c r="F155" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7592,13 +7601,13 @@
         <v>197</v>
       </c>
       <c r="D156" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E156">
         <v>524</v>
       </c>
       <c r="F156" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7612,13 +7621,13 @@
         <v>198</v>
       </c>
       <c r="D157" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E157">
         <v>197</v>
       </c>
       <c r="F157" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7632,13 +7641,13 @@
         <v>199</v>
       </c>
       <c r="D158" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E158">
         <v>111</v>
       </c>
       <c r="F158" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7652,13 +7661,13 @@
         <v>200</v>
       </c>
       <c r="D159" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E159">
         <v>68</v>
       </c>
       <c r="F159" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7672,13 +7681,13 @@
         <v>201</v>
       </c>
       <c r="D160" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E160">
         <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7692,13 +7701,13 @@
         <v>202</v>
       </c>
       <c r="D161" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E161">
         <v>61</v>
       </c>
       <c r="F161" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7712,13 +7721,13 @@
         <v>203</v>
       </c>
       <c r="D162" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E162">
         <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7738,7 +7747,7 @@
         <v>73</v>
       </c>
       <c r="F163" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7752,13 +7761,13 @@
         <v>205</v>
       </c>
       <c r="D164" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E164">
         <v>94</v>
       </c>
       <c r="F164" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7772,13 +7781,13 @@
         <v>206</v>
       </c>
       <c r="D165" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E165">
         <v>127</v>
       </c>
       <c r="F165" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7792,13 +7801,13 @@
         <v>207</v>
       </c>
       <c r="D166" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E166">
         <v>86</v>
       </c>
       <c r="F166" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7812,13 +7821,13 @@
         <v>208</v>
       </c>
       <c r="D167" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E167">
         <v>86</v>
       </c>
       <c r="F167" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7832,13 +7841,13 @@
         <v>209</v>
       </c>
       <c r="D168" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E168">
         <v>249</v>
       </c>
       <c r="F168" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7852,13 +7861,13 @@
         <v>210</v>
       </c>
       <c r="D169" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E169">
         <v>211</v>
       </c>
       <c r="F169" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7872,13 +7881,13 @@
         <v>211</v>
       </c>
       <c r="D170" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E170">
         <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7892,13 +7901,13 @@
         <v>212</v>
       </c>
       <c r="D171" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E171">
         <v>83</v>
       </c>
       <c r="F171" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7912,13 +7921,13 @@
         <v>213</v>
       </c>
       <c r="D172" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E172">
         <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7932,13 +7941,13 @@
         <v>214</v>
       </c>
       <c r="D173" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E173">
         <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7952,13 +7961,13 @@
         <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E174">
         <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7972,13 +7981,13 @@
         <v>216</v>
       </c>
       <c r="D175" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E175">
         <v>51</v>
       </c>
       <c r="F175" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7992,13 +8001,13 @@
         <v>217</v>
       </c>
       <c r="D176" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E176">
         <v>19</v>
       </c>
       <c r="F176" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8012,13 +8021,13 @@
         <v>218</v>
       </c>
       <c r="D177" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E177">
         <v>21</v>
       </c>
       <c r="F177" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8032,13 +8041,13 @@
         <v>219</v>
       </c>
       <c r="D178" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E178">
         <v>65</v>
       </c>
       <c r="F178" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8052,13 +8061,13 @@
         <v>220</v>
       </c>
       <c r="D179" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E179">
         <v>101</v>
       </c>
       <c r="F179" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8072,13 +8081,13 @@
         <v>221</v>
       </c>
       <c r="D180" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E180">
         <v>2494</v>
       </c>
       <c r="F180" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8092,13 +8101,13 @@
         <v>222</v>
       </c>
       <c r="D181" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E181">
         <v>907</v>
       </c>
       <c r="F181" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8112,13 +8121,13 @@
         <v>223</v>
       </c>
       <c r="D182" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E182">
         <v>3769</v>
       </c>
       <c r="F182" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8132,13 +8141,13 @@
         <v>224</v>
       </c>
       <c r="D183" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E183">
         <v>5109</v>
       </c>
       <c r="F183" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8152,13 +8161,13 @@
         <v>225</v>
       </c>
       <c r="D184" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E184">
         <v>376</v>
       </c>
       <c r="F184" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8172,13 +8181,13 @@
         <v>226</v>
       </c>
       <c r="D185" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E185">
         <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8192,13 +8201,13 @@
         <v>227</v>
       </c>
       <c r="D186" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E186">
         <v>512</v>
       </c>
       <c r="F186" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8212,13 +8221,13 @@
         <v>228</v>
       </c>
       <c r="D187" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E187">
         <v>522</v>
       </c>
       <c r="F187" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8232,13 +8241,13 @@
         <v>229</v>
       </c>
       <c r="D188" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E188">
         <v>470</v>
       </c>
       <c r="F188" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8252,13 +8261,13 @@
         <v>230</v>
       </c>
       <c r="D189" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E189">
         <v>551</v>
       </c>
       <c r="F189" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8272,13 +8281,13 @@
         <v>231</v>
       </c>
       <c r="D190" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E190">
         <v>151</v>
       </c>
       <c r="F190" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -8292,13 +8301,13 @@
         <v>232</v>
       </c>
       <c r="D191" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E191">
         <v>1612</v>
       </c>
       <c r="F191" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8312,13 +8321,13 @@
         <v>233</v>
       </c>
       <c r="D192" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E192">
         <v>1304</v>
       </c>
       <c r="F192" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8332,13 +8341,13 @@
         <v>234</v>
       </c>
       <c r="D193" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E193">
         <v>4574</v>
       </c>
       <c r="F193" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -8352,13 +8361,13 @@
         <v>235</v>
       </c>
       <c r="D194" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E194">
         <v>37860</v>
       </c>
       <c r="F194" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8372,13 +8381,13 @@
         <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E195">
         <v>565</v>
       </c>
       <c r="F195" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8392,13 +8401,13 @@
         <v>237</v>
       </c>
       <c r="D196" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E196">
         <v>6313</v>
       </c>
       <c r="F196" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8412,13 +8421,13 @@
         <v>238</v>
       </c>
       <c r="D197" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E197">
         <v>234</v>
       </c>
       <c r="F197" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8432,13 +8441,13 @@
         <v>239</v>
       </c>
       <c r="D198" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E198">
         <v>290</v>
       </c>
       <c r="F198" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8452,13 +8461,13 @@
         <v>240</v>
       </c>
       <c r="D199" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E199">
         <v>670</v>
       </c>
       <c r="F199" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8472,13 +8481,13 @@
         <v>241</v>
       </c>
       <c r="D200" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E200">
         <v>587</v>
       </c>
       <c r="F200" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8492,13 +8501,13 @@
         <v>242</v>
       </c>
       <c r="D201" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E201">
         <v>192</v>
       </c>
       <c r="F201" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8512,13 +8521,13 @@
         <v>243</v>
       </c>
       <c r="D202" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E202">
         <v>323</v>
       </c>
       <c r="F202" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8532,13 +8541,13 @@
         <v>244</v>
       </c>
       <c r="D203" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E203">
         <v>435</v>
       </c>
       <c r="F203" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8552,13 +8561,13 @@
         <v>245</v>
       </c>
       <c r="D204" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E204">
         <v>2528</v>
       </c>
       <c r="F204" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8572,13 +8581,13 @@
         <v>246</v>
       </c>
       <c r="D205" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E205">
         <v>1419</v>
       </c>
       <c r="F205" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8592,13 +8601,13 @@
         <v>247</v>
       </c>
       <c r="D206" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E206">
         <v>504</v>
       </c>
       <c r="F206" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8612,13 +8621,13 @@
         <v>248</v>
       </c>
       <c r="D207" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E207">
         <v>140</v>
       </c>
       <c r="F207" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8632,13 +8641,13 @@
         <v>249</v>
       </c>
       <c r="D208" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E208">
         <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8652,13 +8661,13 @@
         <v>250</v>
       </c>
       <c r="D209" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E209">
         <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8672,13 +8681,13 @@
         <v>251</v>
       </c>
       <c r="D210" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E210">
         <v>184</v>
       </c>
       <c r="F210" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8692,13 +8701,13 @@
         <v>252</v>
       </c>
       <c r="D211" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E211">
         <v>2117</v>
       </c>
       <c r="F211" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8712,13 +8721,13 @@
         <v>253</v>
       </c>
       <c r="D212" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E212">
         <v>15</v>
       </c>
       <c r="F212" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8738,7 +8747,7 @@
         <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8752,13 +8761,13 @@
         <v>255</v>
       </c>
       <c r="D214" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E214">
         <v>6</v>
       </c>
       <c r="F214" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8772,13 +8781,13 @@
         <v>256</v>
       </c>
       <c r="D215" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E215">
         <v>18</v>
       </c>
       <c r="F215" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8792,13 +8801,13 @@
         <v>257</v>
       </c>
       <c r="D216" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E216">
         <v>33</v>
       </c>
       <c r="F216" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8812,13 +8821,13 @@
         <v>258</v>
       </c>
       <c r="D217" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E217">
         <v>128</v>
       </c>
       <c r="F217" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8832,13 +8841,13 @@
         <v>259</v>
       </c>
       <c r="D218" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E218">
         <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8858,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8872,13 +8881,13 @@
         <v>261</v>
       </c>
       <c r="D220" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E220">
         <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8892,13 +8901,13 @@
         <v>262</v>
       </c>
       <c r="D221" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E221">
         <v>16</v>
       </c>
       <c r="F221" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8918,7 +8927,7 @@
         <v>18</v>
       </c>
       <c r="F222" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8932,13 +8941,13 @@
         <v>264</v>
       </c>
       <c r="D223" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E223">
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8952,13 +8961,13 @@
         <v>265</v>
       </c>
       <c r="D224" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E224">
         <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8972,13 +8981,13 @@
         <v>266</v>
       </c>
       <c r="D225" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E225">
         <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8992,13 +9001,13 @@
         <v>267</v>
       </c>
       <c r="D226" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E226">
         <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -9012,13 +9021,13 @@
         <v>268</v>
       </c>
       <c r="D227" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E227">
         <v>4</v>
       </c>
       <c r="F227" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -9032,13 +9041,13 @@
         <v>269</v>
       </c>
       <c r="D228" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E228">
         <v>59</v>
       </c>
       <c r="F228" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -9052,13 +9061,13 @@
         <v>270</v>
       </c>
       <c r="D229" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E229">
         <v>5</v>
       </c>
       <c r="F229" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -9072,13 +9081,13 @@
         <v>271</v>
       </c>
       <c r="D230" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E230">
         <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -9092,13 +9101,13 @@
         <v>272</v>
       </c>
       <c r="D231" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E231">
         <v>35</v>
       </c>
       <c r="F231" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -9112,13 +9121,13 @@
         <v>273</v>
       </c>
       <c r="D232" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E232">
         <v>1132</v>
       </c>
       <c r="F232" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -9132,13 +9141,13 @@
         <v>274</v>
       </c>
       <c r="D233" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E233">
         <v>941</v>
       </c>
       <c r="F233" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -9152,13 +9161,13 @@
         <v>275</v>
       </c>
       <c r="D234" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E234">
         <v>209</v>
       </c>
       <c r="F234" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -9172,13 +9181,13 @@
         <v>276</v>
       </c>
       <c r="D235" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E235">
         <v>3027</v>
       </c>
       <c r="F235" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -9192,13 +9201,13 @@
         <v>277</v>
       </c>
       <c r="D236" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E236">
         <v>2659</v>
       </c>
       <c r="F236" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9212,13 +9221,13 @@
         <v>278</v>
       </c>
       <c r="D237" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E237">
         <v>3347</v>
       </c>
       <c r="F237" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9232,13 +9241,13 @@
         <v>279</v>
       </c>
       <c r="D238" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E238">
         <v>1118</v>
       </c>
       <c r="F238" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9252,13 +9261,13 @@
         <v>280</v>
       </c>
       <c r="D239" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E239">
         <v>939</v>
       </c>
       <c r="F239" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9272,13 +9281,13 @@
         <v>281</v>
       </c>
       <c r="D240" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E240">
         <v>1772</v>
       </c>
       <c r="F240" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9292,13 +9301,13 @@
         <v>282</v>
       </c>
       <c r="D241" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E241">
         <v>16513</v>
       </c>
       <c r="F241" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9312,13 +9321,13 @@
         <v>283</v>
       </c>
       <c r="D242" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E242">
         <v>12290</v>
       </c>
       <c r="F242" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9332,13 +9341,13 @@
         <v>284</v>
       </c>
       <c r="D243" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E243">
         <v>56</v>
       </c>
       <c r="F243" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9352,13 +9361,13 @@
         <v>285</v>
       </c>
       <c r="D244" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E244">
         <v>52</v>
       </c>
       <c r="F244" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9372,13 +9381,13 @@
         <v>286</v>
       </c>
       <c r="D245" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E245">
         <v>2888</v>
       </c>
       <c r="F245" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9392,13 +9401,13 @@
         <v>287</v>
       </c>
       <c r="D246" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E246">
         <v>174</v>
       </c>
       <c r="F246" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9412,13 +9421,13 @@
         <v>288</v>
       </c>
       <c r="D247" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E247">
         <v>64</v>
       </c>
       <c r="F247" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9432,13 +9441,13 @@
         <v>289</v>
       </c>
       <c r="D248" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E248">
         <v>30</v>
       </c>
       <c r="F248" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9452,13 +9461,13 @@
         <v>290</v>
       </c>
       <c r="D249" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E249">
         <v>557</v>
       </c>
       <c r="F249" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9472,13 +9481,13 @@
         <v>291</v>
       </c>
       <c r="D250" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E250">
         <v>99</v>
       </c>
       <c r="F250" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9492,13 +9501,13 @@
         <v>292</v>
       </c>
       <c r="D251" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E251">
         <v>280</v>
       </c>
       <c r="F251" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9512,13 +9521,13 @@
         <v>293</v>
       </c>
       <c r="D252" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E252">
         <v>395</v>
       </c>
       <c r="F252" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9532,13 +9541,13 @@
         <v>294</v>
       </c>
       <c r="D253" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E253">
         <v>443</v>
       </c>
       <c r="F253" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9552,13 +9561,13 @@
         <v>295</v>
       </c>
       <c r="D254" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E254">
         <v>163</v>
       </c>
       <c r="F254" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9572,13 +9581,13 @@
         <v>296</v>
       </c>
       <c r="D255" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E255">
         <v>76</v>
       </c>
       <c r="F255" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9592,13 +9601,13 @@
         <v>297</v>
       </c>
       <c r="D256" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E256">
         <v>290</v>
       </c>
       <c r="F256" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9612,13 +9621,13 @@
         <v>298</v>
       </c>
       <c r="D257" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E257">
         <v>243</v>
       </c>
       <c r="F257" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9632,13 +9641,13 @@
         <v>299</v>
       </c>
       <c r="D258" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E258">
         <v>365</v>
       </c>
       <c r="F258" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9652,13 +9661,13 @@
         <v>300</v>
       </c>
       <c r="D259" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E259">
         <v>138</v>
       </c>
       <c r="F259" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9672,13 +9681,13 @@
         <v>301</v>
       </c>
       <c r="D260" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E260">
         <v>106</v>
       </c>
       <c r="F260" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9692,13 +9701,13 @@
         <v>302</v>
       </c>
       <c r="D261" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E261">
         <v>458</v>
       </c>
       <c r="F261" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9712,13 +9721,13 @@
         <v>303</v>
       </c>
       <c r="D262" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E262">
         <v>183</v>
       </c>
       <c r="F262" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9732,13 +9741,13 @@
         <v>304</v>
       </c>
       <c r="D263" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E263">
         <v>1149</v>
       </c>
       <c r="F263" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9752,13 +9761,13 @@
         <v>305</v>
       </c>
       <c r="D264" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E264">
         <v>134</v>
       </c>
       <c r="F264" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9772,13 +9781,13 @@
         <v>306</v>
       </c>
       <c r="D265" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E265">
         <v>56</v>
       </c>
       <c r="F265" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9792,13 +9801,13 @@
         <v>307</v>
       </c>
       <c r="D266" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E266">
         <v>37</v>
       </c>
       <c r="F266" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9812,13 +9821,13 @@
         <v>308</v>
       </c>
       <c r="D267" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E267">
         <v>77</v>
       </c>
       <c r="F267" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9832,13 +9841,13 @@
         <v>309</v>
       </c>
       <c r="D268" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E268">
         <v>54</v>
       </c>
       <c r="F268" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9852,13 +9861,13 @@
         <v>310</v>
       </c>
       <c r="D269" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E269">
         <v>174</v>
       </c>
       <c r="F269" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9872,13 +9881,13 @@
         <v>311</v>
       </c>
       <c r="D270" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E270">
         <v>168</v>
       </c>
       <c r="F270" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9892,13 +9901,13 @@
         <v>312</v>
       </c>
       <c r="D271" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E271">
         <v>218</v>
       </c>
       <c r="F271" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9912,13 +9921,13 @@
         <v>313</v>
       </c>
       <c r="D272" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E272">
         <v>262</v>
       </c>
       <c r="F272" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9931,14 +9940,14 @@
       <c r="C273" t="s">
         <v>314</v>
       </c>
-      <c r="D273">
-        <v>21431</v>
+      <c r="D273" t="s">
+        <v>740</v>
       </c>
       <c r="E273">
         <v>12</v>
       </c>
       <c r="F273" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9952,13 +9961,13 @@
         <v>315</v>
       </c>
       <c r="D274" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E274">
         <v>22</v>
       </c>
       <c r="F274" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9972,13 +9981,13 @@
         <v>316</v>
       </c>
       <c r="D275" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E275">
         <v>44</v>
       </c>
       <c r="F275" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9992,13 +10001,13 @@
         <v>317</v>
       </c>
       <c r="D276" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E276">
         <v>77</v>
       </c>
       <c r="F276" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -10012,13 +10021,13 @@
         <v>318</v>
       </c>
       <c r="D277" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E277">
         <v>740</v>
       </c>
       <c r="F277" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -10032,13 +10041,13 @@
         <v>318</v>
       </c>
       <c r="D278" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E278">
         <v>639</v>
       </c>
       <c r="F278" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -10052,13 +10061,13 @@
         <v>319</v>
       </c>
       <c r="D279" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E279">
         <v>3092</v>
       </c>
       <c r="F279" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -10072,13 +10081,13 @@
         <v>320</v>
       </c>
       <c r="D280" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E280">
         <v>48</v>
       </c>
       <c r="F280" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -10092,13 +10101,13 @@
         <v>321</v>
       </c>
       <c r="D281" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E281">
         <v>105</v>
       </c>
       <c r="F281" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -10112,13 +10121,13 @@
         <v>322</v>
       </c>
       <c r="D282" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E282">
         <v>129</v>
       </c>
       <c r="F282" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -10132,13 +10141,13 @@
         <v>323</v>
       </c>
       <c r="D283" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E283">
         <v>62</v>
       </c>
       <c r="F283" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -10152,13 +10161,13 @@
         <v>324</v>
       </c>
       <c r="D284" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E284">
         <v>46</v>
       </c>
       <c r="F284" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -10178,7 +10187,7 @@
         <v>103</v>
       </c>
       <c r="F285" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -10192,13 +10201,13 @@
         <v>326</v>
       </c>
       <c r="D286" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E286">
         <v>119</v>
       </c>
       <c r="F286" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -10212,13 +10221,13 @@
         <v>327</v>
       </c>
       <c r="D287" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E287">
         <v>542</v>
       </c>
       <c r="F287" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -10232,13 +10241,13 @@
         <v>328</v>
       </c>
       <c r="D288" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E288">
         <v>82</v>
       </c>
       <c r="F288" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -10252,13 +10261,13 @@
         <v>329</v>
       </c>
       <c r="D289" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E289">
         <v>41</v>
       </c>
       <c r="F289" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -10272,13 +10281,13 @@
         <v>330</v>
       </c>
       <c r="D290" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E290">
         <v>59</v>
       </c>
       <c r="F290" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -10292,13 +10301,13 @@
         <v>331</v>
       </c>
       <c r="D291" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E291">
         <v>69</v>
       </c>
       <c r="F291" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -10318,7 +10327,7 @@
         <v>997</v>
       </c>
       <c r="F292" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -10332,13 +10341,13 @@
         <v>333</v>
       </c>
       <c r="D293" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E293">
         <v>370</v>
       </c>
       <c r="F293" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -10352,13 +10361,13 @@
         <v>334</v>
       </c>
       <c r="D294" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E294">
         <v>180</v>
       </c>
       <c r="F294" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -10372,13 +10381,13 @@
         <v>335</v>
       </c>
       <c r="D295" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E295">
         <v>61</v>
       </c>
       <c r="F295" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -10392,13 +10401,13 @@
         <v>336</v>
       </c>
       <c r="D296" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E296">
         <v>605</v>
       </c>
       <c r="F296" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -10412,13 +10421,13 @@
         <v>337</v>
       </c>
       <c r="D297" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E297">
         <v>2435</v>
       </c>
       <c r="F297" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -10432,13 +10441,13 @@
         <v>338</v>
       </c>
       <c r="D298" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E298">
         <v>1184</v>
       </c>
       <c r="F298" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -10452,13 +10461,13 @@
         <v>339</v>
       </c>
       <c r="D299" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E299">
         <v>1885</v>
       </c>
       <c r="F299" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -10472,13 +10481,13 @@
         <v>340</v>
       </c>
       <c r="D300" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E300">
         <v>587</v>
       </c>
       <c r="F300" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -10492,13 +10501,13 @@
         <v>341</v>
       </c>
       <c r="D301" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E301">
         <v>1307</v>
       </c>
       <c r="F301" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -10512,13 +10521,13 @@
         <v>342</v>
       </c>
       <c r="D302" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E302">
         <v>1238</v>
       </c>
       <c r="F302" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -10532,13 +10541,13 @@
         <v>343</v>
       </c>
       <c r="D303" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E303">
         <v>2545</v>
       </c>
       <c r="F303" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -10552,13 +10561,13 @@
         <v>344</v>
       </c>
       <c r="D304" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E304">
         <v>3634</v>
       </c>
       <c r="F304" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -10572,13 +10581,13 @@
         <v>345</v>
       </c>
       <c r="D305" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E305">
         <v>2335</v>
       </c>
       <c r="F305" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -10592,13 +10601,13 @@
         <v>346</v>
       </c>
       <c r="D306" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E306">
         <v>202</v>
       </c>
       <c r="F306" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -10612,13 +10621,13 @@
         <v>347</v>
       </c>
       <c r="D307" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E307">
         <v>238</v>
       </c>
       <c r="F307" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -10632,13 +10641,13 @@
         <v>348</v>
       </c>
       <c r="D308" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E308">
         <v>115</v>
       </c>
       <c r="F308" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -10658,7 +10667,7 @@
         <v>62</v>
       </c>
       <c r="F309" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -10672,13 +10681,13 @@
         <v>350</v>
       </c>
       <c r="D310" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E310">
         <v>172</v>
       </c>
       <c r="F310" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -10692,13 +10701,13 @@
         <v>351</v>
       </c>
       <c r="D311" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E311">
         <v>67</v>
       </c>
       <c r="F311" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -10712,13 +10721,13 @@
         <v>352</v>
       </c>
       <c r="D312" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E312">
         <v>56</v>
       </c>
       <c r="F312" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -10732,13 +10741,13 @@
         <v>353</v>
       </c>
       <c r="D313" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E313">
         <v>393</v>
       </c>
       <c r="F313" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -10752,13 +10761,13 @@
         <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E314">
         <v>688</v>
       </c>
       <c r="F314" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -10772,13 +10781,13 @@
         <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E315">
         <v>261</v>
       </c>
       <c r="F315" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -10792,13 +10801,13 @@
         <v>356</v>
       </c>
       <c r="D316" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E316">
         <v>309</v>
       </c>
       <c r="F316" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -10812,13 +10821,13 @@
         <v>357</v>
       </c>
       <c r="D317" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E317">
         <v>365</v>
       </c>
       <c r="F317" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -10832,13 +10841,13 @@
         <v>358</v>
       </c>
       <c r="D318" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E318">
         <v>1418</v>
       </c>
       <c r="F318" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -10852,13 +10861,13 @@
         <v>359</v>
       </c>
       <c r="D319" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E319">
         <v>458</v>
       </c>
       <c r="F319" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -10872,13 +10881,13 @@
         <v>360</v>
       </c>
       <c r="D320" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E320">
         <v>76</v>
       </c>
       <c r="F320" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -10892,13 +10901,13 @@
         <v>361</v>
       </c>
       <c r="D321" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E321">
         <v>204</v>
       </c>
       <c r="F321" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -10912,13 +10921,13 @@
         <v>362</v>
       </c>
       <c r="D322" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E322">
         <v>42</v>
       </c>
       <c r="F322" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -10932,13 +10941,13 @@
         <v>363</v>
       </c>
       <c r="D323" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E323">
         <v>175</v>
       </c>
       <c r="F323" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -10952,13 +10961,13 @@
         <v>364</v>
       </c>
       <c r="D324" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E324">
         <v>180</v>
       </c>
       <c r="F324" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -10972,13 +10981,13 @@
         <v>365</v>
       </c>
       <c r="D325" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E325">
         <v>284</v>
       </c>
       <c r="F325" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -10992,13 +11001,13 @@
         <v>366</v>
       </c>
       <c r="D326" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E326">
         <v>690</v>
       </c>
       <c r="F326" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -11012,13 +11021,13 @@
         <v>367</v>
       </c>
       <c r="D327" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E327">
         <v>646</v>
       </c>
       <c r="F327" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -11032,13 +11041,13 @@
         <v>368</v>
       </c>
       <c r="D328" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E328">
         <v>334</v>
       </c>
       <c r="F328" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -11052,13 +11061,13 @@
         <v>369</v>
       </c>
       <c r="D329" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E329">
         <v>413</v>
       </c>
       <c r="F329" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -11072,13 +11081,13 @@
         <v>370</v>
       </c>
       <c r="D330" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E330">
         <v>480</v>
       </c>
       <c r="F330" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -11092,13 +11101,13 @@
         <v>371</v>
       </c>
       <c r="D331" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E331">
         <v>621</v>
       </c>
       <c r="F331" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -11112,13 +11121,13 @@
         <v>372</v>
       </c>
       <c r="D332" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E332">
         <v>127</v>
       </c>
       <c r="F332" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -11132,13 +11141,13 @@
         <v>373</v>
       </c>
       <c r="D333" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E333">
         <v>270</v>
       </c>
       <c r="F333" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -11152,13 +11161,13 @@
         <v>374</v>
       </c>
       <c r="D334" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E334">
         <v>13</v>
       </c>
       <c r="F334" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -11172,13 +11181,13 @@
         <v>375</v>
       </c>
       <c r="D335" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E335">
         <v>74</v>
       </c>
       <c r="F335" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -11192,13 +11201,13 @@
         <v>376</v>
       </c>
       <c r="D336" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E336">
         <v>42</v>
       </c>
       <c r="F336" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -11212,13 +11221,13 @@
         <v>377</v>
       </c>
       <c r="D337" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E337">
         <v>117</v>
       </c>
       <c r="F337" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -11232,13 +11241,13 @@
         <v>378</v>
       </c>
       <c r="D338" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E338">
         <v>160</v>
       </c>
       <c r="F338" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -11252,13 +11261,13 @@
         <v>379</v>
       </c>
       <c r="D339" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E339">
         <v>576</v>
       </c>
       <c r="F339" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -11272,13 +11281,13 @@
         <v>380</v>
       </c>
       <c r="D340" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E340">
         <v>334</v>
       </c>
       <c r="F340" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -11292,13 +11301,13 @@
         <v>381</v>
       </c>
       <c r="D341" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E341">
         <v>156</v>
       </c>
       <c r="F341" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -11312,13 +11321,13 @@
         <v>382</v>
       </c>
       <c r="D342" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E342">
         <v>106</v>
       </c>
       <c r="F342" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -11332,13 +11341,13 @@
         <v>383</v>
       </c>
       <c r="D343" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E343">
         <v>172</v>
       </c>
       <c r="F343" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -11352,13 +11361,13 @@
         <v>384</v>
       </c>
       <c r="D344" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E344">
         <v>88</v>
       </c>
       <c r="F344" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -11378,7 +11387,7 @@
         <v>100</v>
       </c>
       <c r="F345" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -11392,13 +11401,13 @@
         <v>386</v>
       </c>
       <c r="D346" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E346">
         <v>800</v>
       </c>
       <c r="F346" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -11412,13 +11421,13 @@
         <v>387</v>
       </c>
       <c r="D347" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E347">
         <v>389</v>
       </c>
       <c r="F347" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -11432,13 +11441,13 @@
         <v>388</v>
       </c>
       <c r="D348" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E348">
         <v>588</v>
       </c>
       <c r="F348" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -11452,13 +11461,13 @@
         <v>389</v>
       </c>
       <c r="D349" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E349">
         <v>347</v>
       </c>
       <c r="F349" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -11472,13 +11481,13 @@
         <v>390</v>
       </c>
       <c r="D350" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E350">
         <v>9715</v>
       </c>
       <c r="F350" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -11492,13 +11501,13 @@
         <v>391</v>
       </c>
       <c r="D351" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E351">
         <v>6683</v>
       </c>
       <c r="F351" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -11512,13 +11521,13 @@
         <v>392</v>
       </c>
       <c r="D352" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E352">
         <v>293</v>
       </c>
       <c r="F352" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -11532,13 +11541,13 @@
         <v>393</v>
       </c>
       <c r="D353" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E353">
         <v>41</v>
       </c>
       <c r="F353" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -11552,13 +11561,13 @@
         <v>394</v>
       </c>
       <c r="D354" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E354">
         <v>42</v>
       </c>
       <c r="F354" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -11572,13 +11581,13 @@
         <v>395</v>
       </c>
       <c r="D355" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E355">
         <v>405</v>
       </c>
       <c r="F355" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -11592,13 +11601,13 @@
         <v>396</v>
       </c>
       <c r="D356" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E356">
         <v>441</v>
       </c>
       <c r="F356" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -11612,13 +11621,13 @@
         <v>397</v>
       </c>
       <c r="D357" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E357">
         <v>158</v>
       </c>
       <c r="F357" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -11632,13 +11641,13 @@
         <v>398</v>
       </c>
       <c r="D358" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E358">
         <v>311</v>
       </c>
       <c r="F358" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -11652,13 +11661,13 @@
         <v>399</v>
       </c>
       <c r="D359" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E359">
         <v>258</v>
       </c>
       <c r="F359" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -11672,13 +11681,13 @@
         <v>400</v>
       </c>
       <c r="D360" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E360">
         <v>152</v>
       </c>
       <c r="F360" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -11692,13 +11701,13 @@
         <v>401</v>
       </c>
       <c r="D361" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E361">
         <v>461</v>
       </c>
       <c r="F361" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -11712,13 +11721,13 @@
         <v>402</v>
       </c>
       <c r="D362" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E362">
         <v>217</v>
       </c>
       <c r="F362" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -11732,13 +11741,13 @@
         <v>403</v>
       </c>
       <c r="D363" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E363">
         <v>124</v>
       </c>
       <c r="F363" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -11751,14 +11760,14 @@
       <c r="C364" t="s">
         <v>404</v>
       </c>
-      <c r="D364">
-        <v>54613</v>
+      <c r="D364" t="s">
+        <v>827</v>
       </c>
       <c r="E364">
         <v>63</v>
       </c>
       <c r="F364" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -11772,13 +11781,13 @@
         <v>405</v>
       </c>
       <c r="D365" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E365">
         <v>28</v>
       </c>
       <c r="F365" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -11798,7 +11807,7 @@
         <v>349</v>
       </c>
       <c r="F366" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -11812,13 +11821,13 @@
         <v>407</v>
       </c>
       <c r="D367" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E367">
         <v>1205</v>
       </c>
       <c r="F367" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -11832,13 +11841,13 @@
         <v>408</v>
       </c>
       <c r="D368" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E368">
         <v>1518</v>
       </c>
       <c r="F368" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -11852,13 +11861,13 @@
         <v>409</v>
       </c>
       <c r="D369" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E369">
         <v>1160</v>
       </c>
       <c r="F369" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -11872,13 +11881,13 @@
         <v>410</v>
       </c>
       <c r="D370" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E370">
         <v>4403</v>
       </c>
       <c r="F370" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -11892,13 +11901,13 @@
         <v>411</v>
       </c>
       <c r="D371" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E371">
         <v>627</v>
       </c>
       <c r="F371" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -11912,13 +11921,13 @@
         <v>412</v>
       </c>
       <c r="D372" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E372">
         <v>2006</v>
       </c>
       <c r="F372" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -11932,13 +11941,13 @@
         <v>413</v>
       </c>
       <c r="D373" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E373">
         <v>59</v>
       </c>
       <c r="F373" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -11952,13 +11961,13 @@
         <v>414</v>
       </c>
       <c r="D374" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E374">
         <v>38</v>
       </c>
       <c r="F374" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -11972,13 +11981,13 @@
         <v>415</v>
       </c>
       <c r="D375" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E375">
         <v>70</v>
       </c>
       <c r="F375" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -11992,13 +12001,13 @@
         <v>416</v>
       </c>
       <c r="D376" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E376">
         <v>70</v>
       </c>
       <c r="F376" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -12012,13 +12021,13 @@
         <v>417</v>
       </c>
       <c r="D377" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E377">
         <v>548</v>
       </c>
       <c r="F377" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -12032,13 +12041,13 @@
         <v>418</v>
       </c>
       <c r="D378" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E378">
         <v>282</v>
       </c>
       <c r="F378" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -12052,13 +12061,13 @@
         <v>419</v>
       </c>
       <c r="D379" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E379">
         <v>578</v>
       </c>
       <c r="F379" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -12072,13 +12081,13 @@
         <v>420</v>
       </c>
       <c r="D380" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E380">
         <v>279</v>
       </c>
       <c r="F380" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -12092,13 +12101,13 @@
         <v>421</v>
       </c>
       <c r="D381" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E381">
         <v>41</v>
       </c>
       <c r="F381" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -12112,13 +12121,13 @@
         <v>422</v>
       </c>
       <c r="D382" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E382">
         <v>84</v>
       </c>
       <c r="F382" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -12132,13 +12141,13 @@
         <v>423</v>
       </c>
       <c r="D383" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E383">
         <v>84</v>
       </c>
       <c r="F383" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -12152,13 +12161,13 @@
         <v>424</v>
       </c>
       <c r="D384" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E384">
         <v>84</v>
       </c>
       <c r="F384" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -12172,13 +12181,13 @@
         <v>425</v>
       </c>
       <c r="D385" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="E385">
         <v>95</v>
       </c>
       <c r="F385" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -12192,13 +12201,13 @@
         <v>426</v>
       </c>
       <c r="D386" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E386">
         <v>133</v>
       </c>
       <c r="F386" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -12212,13 +12221,13 @@
         <v>427</v>
       </c>
       <c r="D387" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E387">
         <v>81</v>
       </c>
       <c r="F387" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -12232,13 +12241,13 @@
         <v>428</v>
       </c>
       <c r="D388" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E388">
         <v>481</v>
       </c>
       <c r="F388" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -12252,13 +12261,13 @@
         <v>429</v>
       </c>
       <c r="D389" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E389">
         <v>47</v>
       </c>
       <c r="F389" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -12272,13 +12281,13 @@
         <v>430</v>
       </c>
       <c r="D390" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E390">
         <v>55</v>
       </c>
       <c r="F390" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -12292,13 +12301,13 @@
         <v>431</v>
       </c>
       <c r="D391" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E391">
         <v>935</v>
       </c>
       <c r="F391" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -12312,13 +12321,13 @@
         <v>432</v>
       </c>
       <c r="D392" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E392">
         <v>70</v>
       </c>
       <c r="F392" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -12332,13 +12341,13 @@
         <v>433</v>
       </c>
       <c r="D393" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E393">
         <v>169</v>
       </c>
       <c r="F393" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -12352,13 +12361,13 @@
         <v>434</v>
       </c>
       <c r="D394" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E394">
         <v>169</v>
       </c>
       <c r="F394" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -12372,13 +12381,13 @@
         <v>435</v>
       </c>
       <c r="D395" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E395">
         <v>578</v>
       </c>
       <c r="F395" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -12392,13 +12401,13 @@
         <v>436</v>
       </c>
       <c r="D396" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E396">
         <v>160</v>
       </c>
       <c r="F396" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -12412,13 +12421,13 @@
         <v>437</v>
       </c>
       <c r="D397" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E397">
         <v>115</v>
       </c>
       <c r="F397" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -12432,13 +12441,13 @@
         <v>438</v>
       </c>
       <c r="D398" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E398">
         <v>241</v>
       </c>
       <c r="F398" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -12452,13 +12461,13 @@
         <v>439</v>
       </c>
       <c r="D399" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E399">
         <v>235</v>
       </c>
       <c r="F399" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -12472,13 +12481,13 @@
         <v>440</v>
       </c>
       <c r="D400" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E400">
         <v>159</v>
       </c>
       <c r="F400" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -12492,13 +12501,13 @@
         <v>441</v>
       </c>
       <c r="D401" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="E401">
         <v>143</v>
       </c>
       <c r="F401" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -12512,13 +12521,13 @@
         <v>442</v>
       </c>
       <c r="D402" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E402">
         <v>62</v>
       </c>
       <c r="F402" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -12532,13 +12541,13 @@
         <v>443</v>
       </c>
       <c r="D403" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E403">
         <v>950</v>
       </c>
       <c r="F403" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -12552,13 +12561,13 @@
         <v>444</v>
       </c>
       <c r="D404" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E404">
         <v>9</v>
       </c>
       <c r="F404" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -12572,13 +12581,13 @@
         <v>445</v>
       </c>
       <c r="D405" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E405">
         <v>53</v>
       </c>
       <c r="F405" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -12592,13 +12601,13 @@
         <v>446</v>
       </c>
       <c r="D406" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E406">
         <v>71</v>
       </c>
       <c r="F406" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -12612,13 +12621,13 @@
         <v>447</v>
       </c>
       <c r="D407" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="E407">
         <v>119</v>
       </c>
       <c r="F407" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -12632,13 +12641,13 @@
         <v>448</v>
       </c>
       <c r="D408" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E408">
         <v>71</v>
       </c>
       <c r="F408" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -12652,13 +12661,13 @@
         <v>449</v>
       </c>
       <c r="D409" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E409">
         <v>105</v>
       </c>
       <c r="F409" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -12672,13 +12681,13 @@
         <v>450</v>
       </c>
       <c r="D410" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E410">
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -12692,13 +12701,13 @@
         <v>451</v>
       </c>
       <c r="D411" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E411">
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -12712,13 +12721,13 @@
         <v>452</v>
       </c>
       <c r="D412" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E412">
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -12732,13 +12741,13 @@
         <v>453</v>
       </c>
       <c r="D413" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E413">
         <v>12</v>
       </c>
       <c r="F413" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -12752,13 +12761,13 @@
         <v>454</v>
       </c>
       <c r="D414" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="E414">
         <v>12</v>
       </c>
       <c r="F414" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -12772,13 +12781,13 @@
         <v>455</v>
       </c>
       <c r="D415" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E415">
         <v>19</v>
       </c>
       <c r="F415" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -12792,13 +12801,13 @@
         <v>456</v>
       </c>
       <c r="D416" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="E416">
         <v>47</v>
       </c>
       <c r="F416" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -12812,13 +12821,13 @@
         <v>457</v>
       </c>
       <c r="D417" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E417">
         <v>47</v>
       </c>
       <c r="F417" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -12832,13 +12841,13 @@
         <v>458</v>
       </c>
       <c r="D418" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="E418">
         <v>12</v>
       </c>
       <c r="F418" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -12852,13 +12861,13 @@
         <v>459</v>
       </c>
       <c r="D419" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E419">
         <v>84</v>
       </c>
       <c r="F419" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -12872,13 +12881,13 @@
         <v>460</v>
       </c>
       <c r="D420" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E420">
         <v>71</v>
       </c>
       <c r="F420" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -12892,13 +12901,13 @@
         <v>461</v>
       </c>
       <c r="D421" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E421">
         <v>19</v>
       </c>
       <c r="F421" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -12912,13 +12921,13 @@
         <v>462</v>
       </c>
       <c r="D422" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="E422">
         <v>19</v>
       </c>
       <c r="F422" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -12932,13 +12941,13 @@
         <v>463</v>
       </c>
       <c r="D423" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E423">
         <v>81</v>
       </c>
       <c r="F423" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -12952,13 +12961,13 @@
         <v>464</v>
       </c>
       <c r="D424" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E424">
         <v>170</v>
       </c>
       <c r="F424" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -12972,13 +12981,13 @@
         <v>465</v>
       </c>
       <c r="D425" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E425">
         <v>81</v>
       </c>
       <c r="F425" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -12992,13 +13001,13 @@
         <v>466</v>
       </c>
       <c r="D426" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E426">
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -13012,13 +13021,13 @@
         <v>467</v>
       </c>
       <c r="D427" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E427">
         <v>11</v>
       </c>
       <c r="F427" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -13032,13 +13041,13 @@
         <v>468</v>
       </c>
       <c r="D428" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E428">
         <v>16</v>
       </c>
       <c r="F428" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -13052,13 +13061,13 @@
         <v>469</v>
       </c>
       <c r="D429" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E429">
         <v>82</v>
       </c>
       <c r="F429" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -13072,13 +13081,13 @@
         <v>470</v>
       </c>
       <c r="D430" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E430">
         <v>70</v>
       </c>
       <c r="F430" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -13092,13 +13101,13 @@
         <v>471</v>
       </c>
       <c r="D431" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E431">
         <v>487</v>
       </c>
       <c r="F431" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -13112,13 +13121,13 @@
         <v>472</v>
       </c>
       <c r="D432" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E432">
         <v>410</v>
       </c>
       <c r="F432" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -13132,13 +13141,13 @@
         <v>473</v>
       </c>
       <c r="D433" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E433">
         <v>228</v>
       </c>
       <c r="F433" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -13152,13 +13161,13 @@
         <v>474</v>
       </c>
       <c r="D434" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E434">
         <v>95</v>
       </c>
       <c r="F434" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -13172,13 +13181,13 @@
         <v>475</v>
       </c>
       <c r="D435" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E435">
         <v>206</v>
       </c>
       <c r="F435" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -13192,13 +13201,13 @@
         <v>476</v>
       </c>
       <c r="D436" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E436">
         <v>97</v>
       </c>
       <c r="F436" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -13212,13 +13221,13 @@
         <v>477</v>
       </c>
       <c r="D437" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E437">
         <v>143</v>
       </c>
       <c r="F437" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -13232,13 +13241,13 @@
         <v>478</v>
       </c>
       <c r="D438" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E438">
         <v>355</v>
       </c>
       <c r="F438" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -13252,13 +13261,13 @@
         <v>479</v>
       </c>
       <c r="D439" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E439">
         <v>148</v>
       </c>
       <c r="F439" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -13272,13 +13281,13 @@
         <v>480</v>
       </c>
       <c r="D440" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E440">
         <v>32</v>
       </c>
       <c r="F440" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -13292,13 +13301,13 @@
         <v>481</v>
       </c>
       <c r="D441" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E441">
         <v>960</v>
       </c>
       <c r="F441" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
